--- a/health-mortality/Mortality_Before_After_Adaptation.xlsx
+++ b/health-mortality/Mortality_Before_After_Adaptation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\not share\NCCS\NCCS-RESULT2\Mortality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\not share\NCCS\NCCS-RESULT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A985EF-CBF2-41A6-8CF0-27148F1D19C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A77FBC-52E1-412E-A4FD-BF98C0C669FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{F1AC908A-370C-4776-AD9A-2E2D08672C26}"/>
   </bookViews>
@@ -556,7 +556,7 @@
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1775,90 +1775,90 @@
         <v>27</v>
       </c>
       <c r="B17" s="7">
-        <v>17889.98</v>
+        <v>17783.939999999999</v>
       </c>
       <c r="C17" s="7">
-        <v>577.29</v>
+        <v>578.37</v>
       </c>
       <c r="D17" s="7">
-        <v>2224.0699999999902</v>
+        <v>2230.27</v>
       </c>
       <c r="E17" s="7">
-        <v>9874.4500000000007</v>
+        <v>9794.65</v>
       </c>
       <c r="F17" s="7">
-        <v>47029.74</v>
+        <v>46771.66</v>
       </c>
       <c r="G17" s="7">
-        <v>8857.42</v>
+        <v>8794.11</v>
       </c>
       <c r="H17" s="7">
-        <v>7388.95</v>
+        <v>7365.9699999999903</v>
       </c>
       <c r="I17" s="7">
-        <v>12573.21</v>
+        <v>12380.91</v>
       </c>
       <c r="J17" s="7">
-        <v>1653.61</v>
+        <v>1650.61</v>
       </c>
       <c r="K17" s="7">
-        <v>7050.8099999999904</v>
+        <v>6989.36</v>
       </c>
       <c r="L17" s="7">
-        <v>2590.44</v>
+        <v>2567.33</v>
       </c>
       <c r="M17" s="7">
-        <v>12134.779999999901</v>
+        <v>12044.66</v>
       </c>
       <c r="N17" s="7">
-        <v>6797.93</v>
+        <v>6740.08</v>
       </c>
       <c r="O17" s="7">
-        <v>1225.95</v>
+        <v>1228.75</v>
       </c>
       <c r="P17" s="7">
-        <v>1157.47</v>
+        <v>1160.3599999999999</v>
       </c>
       <c r="Q17" s="7">
-        <v>15929.03</v>
+        <v>15965.65</v>
       </c>
       <c r="R17" s="7">
-        <v>3090.62</v>
+        <v>3071.76</v>
       </c>
       <c r="S17" s="7">
-        <v>9280.7099999999991</v>
+        <v>9215.24</v>
       </c>
       <c r="T17" s="7">
-        <v>4090.04</v>
+        <v>4098.83</v>
       </c>
       <c r="U17" s="7">
-        <v>7612.29</v>
+        <v>7592.7</v>
       </c>
       <c r="V17" s="7">
-        <v>12111.45</v>
+        <v>11928.53</v>
       </c>
       <c r="W17" s="7">
-        <v>1418.09</v>
+        <v>1414.57</v>
       </c>
       <c r="X17" s="7">
-        <v>22003.279999999999</v>
+        <v>21664.22</v>
       </c>
       <c r="Y17" s="7">
-        <v>9164.73</v>
+        <v>8980.66</v>
       </c>
       <c r="Z17" s="7">
-        <v>2765.39</v>
+        <v>2751.44</v>
       </c>
       <c r="AA17" s="7">
-        <v>43687.34</v>
+        <v>43617.27</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="3"/>
-        <v>270179.06999999995</v>
+        <v>268381.89999999997</v>
       </c>
       <c r="AC17" s="6">
         <f t="shared" ref="AC17:AC25" si="4">(AB17-$AB$2)/$AB$2</f>
-        <v>-9.4067155546167097E-2</v>
+        <v>-0.10009321570718209</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
@@ -1866,90 +1866,90 @@
         <v>28</v>
       </c>
       <c r="B18" s="7">
-        <v>17002.91</v>
+        <v>16320.25</v>
       </c>
       <c r="C18" s="7">
-        <v>545.14</v>
+        <v>542.07999999999902</v>
       </c>
       <c r="D18" s="7">
-        <v>2112.7600000000002</v>
+        <v>2096.89</v>
       </c>
       <c r="E18" s="7">
-        <v>9223.5499999999993</v>
+        <v>8876.33</v>
       </c>
       <c r="F18" s="7">
-        <v>40297.69</v>
+        <v>40147.31</v>
       </c>
       <c r="G18" s="7">
-        <v>8422.4</v>
+        <v>7988.9</v>
       </c>
       <c r="H18" s="7">
-        <v>7061.86</v>
+        <v>6758.3899999999903</v>
       </c>
       <c r="I18" s="7">
-        <v>11920.89</v>
+        <v>11044.7599999999</v>
       </c>
       <c r="J18" s="7">
-        <v>1577.11</v>
+        <v>1529.76</v>
       </c>
       <c r="K18" s="7">
-        <v>6677.04</v>
+        <v>6283.71</v>
       </c>
       <c r="L18" s="7">
-        <v>2442.02</v>
+        <v>2298.3599999999901</v>
       </c>
       <c r="M18" s="7">
-        <v>11438.29</v>
+        <v>11160.619999999901</v>
       </c>
       <c r="N18" s="7">
-        <v>6325.42</v>
+        <v>6094.82</v>
       </c>
       <c r="O18" s="7">
-        <v>1136.8899999999901</v>
+        <v>1134.08</v>
       </c>
       <c r="P18" s="7">
-        <v>1115.69999999999</v>
+        <v>1110.55</v>
       </c>
       <c r="Q18" s="7">
-        <v>15134.529999999901</v>
+        <v>15035.14</v>
       </c>
       <c r="R18" s="7">
-        <v>2898.51</v>
+        <v>2771.88</v>
       </c>
       <c r="S18" s="7">
-        <v>8835.26</v>
+        <v>8438.7199999999993</v>
       </c>
       <c r="T18" s="7">
-        <v>3919.31</v>
+        <v>3898.69</v>
       </c>
       <c r="U18" s="7">
-        <v>7240.5</v>
+        <v>6991.86</v>
       </c>
       <c r="V18" s="7">
-        <v>11467.66</v>
+        <v>11028.11</v>
       </c>
       <c r="W18" s="7">
-        <v>1354.81</v>
+        <v>1307.73</v>
       </c>
       <c r="X18" s="7">
-        <v>15928.5099999999</v>
+        <v>15456.64</v>
       </c>
       <c r="Y18" s="7">
-        <v>8400.0400000000009</v>
+        <v>8007.1399999999903</v>
       </c>
       <c r="Z18" s="7">
-        <v>2636.35</v>
+        <v>2523.04</v>
       </c>
       <c r="AA18" s="7">
-        <v>42024.38</v>
+        <v>41009.629999999997</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" si="3"/>
-        <v>247139.52999999982</v>
+        <f>SUM(B18:AA18)</f>
+        <v>239855.38999999978</v>
       </c>
       <c r="AC18" s="6">
-        <f t="shared" si="4"/>
-        <v>-0.1713206452672916</v>
+        <f>(AB18-$AB$2)/$AB$2</f>
+        <v>-0.19574497121378326</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
@@ -1957,90 +1957,90 @@
         <v>29</v>
       </c>
       <c r="B19" s="7">
-        <v>19098.46</v>
+        <v>18956.77</v>
       </c>
       <c r="C19" s="7">
-        <v>590.19000000000005</v>
+        <v>593.17999999999995</v>
       </c>
       <c r="D19" s="7">
-        <v>2281.14</v>
+        <v>2294.0299999999902</v>
       </c>
       <c r="E19" s="7">
-        <v>10607.9399999999</v>
+        <v>10531.06</v>
       </c>
       <c r="F19" s="7">
-        <v>54882.179999999898</v>
+        <v>54368.539999999899</v>
       </c>
       <c r="G19" s="7">
-        <v>9113.91</v>
+        <v>9145.67</v>
       </c>
       <c r="H19" s="7">
-        <v>7682.01</v>
+        <v>7708.99</v>
       </c>
       <c r="I19" s="7">
-        <v>13140.73</v>
+        <v>13172.13</v>
       </c>
       <c r="J19" s="7">
-        <v>1697.07</v>
+        <v>1709.63</v>
       </c>
       <c r="K19" s="7">
-        <v>7318.95</v>
+        <v>7348.37</v>
       </c>
       <c r="L19" s="7">
-        <v>2656.83</v>
+        <v>2675.73</v>
       </c>
       <c r="M19" s="7">
-        <v>12903.36</v>
+        <v>12840.65</v>
       </c>
       <c r="N19" s="7">
-        <v>7011.28</v>
+        <v>7043.84</v>
       </c>
       <c r="O19" s="7">
-        <v>1266.3599999999999</v>
+        <v>1271.96</v>
       </c>
       <c r="P19" s="7">
-        <v>1191.82</v>
+        <v>1195.76</v>
       </c>
       <c r="Q19" s="7">
-        <v>16511.439999999999</v>
+        <v>16580.52</v>
       </c>
       <c r="R19" s="7">
-        <v>3182.45</v>
+        <v>3202.19</v>
       </c>
       <c r="S19" s="7">
-        <v>9508.09</v>
+        <v>9549.84</v>
       </c>
       <c r="T19" s="7">
-        <v>4190.9799999999996</v>
+        <v>4208.62</v>
       </c>
       <c r="U19" s="7">
-        <v>7819.04</v>
+        <v>7864.51</v>
       </c>
       <c r="V19" s="7">
-        <v>12512.26</v>
+        <v>12500.29</v>
       </c>
       <c r="W19" s="7">
-        <v>1473.6399999999901</v>
+        <v>1480.46</v>
       </c>
       <c r="X19" s="7">
-        <v>26479.46</v>
+        <v>26246</v>
       </c>
       <c r="Y19" s="7">
-        <v>10043.15</v>
+        <v>9900.3799999999992</v>
       </c>
       <c r="Z19" s="7">
-        <v>2840.1</v>
+        <v>2859.47</v>
       </c>
       <c r="AA19" s="7">
-        <v>46013.19</v>
+        <v>45785.84</v>
       </c>
       <c r="AB19" s="2">
         <f t="shared" si="3"/>
-        <v>292016.0299999998</v>
+        <v>291034.42999999993</v>
       </c>
       <c r="AC19" s="6">
         <f t="shared" si="4"/>
-        <v>-2.0846016369751856E-2</v>
+        <v>-2.4137402634852832E-2</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
@@ -2048,90 +2048,90 @@
         <v>30</v>
       </c>
       <c r="B20" s="7">
-        <v>18385.189999999999</v>
+        <v>18196.21</v>
       </c>
       <c r="C20" s="7">
-        <v>588.98</v>
+        <v>589.42999999999995</v>
       </c>
       <c r="D20" s="7">
-        <v>2272.56</v>
+        <v>2277.84</v>
       </c>
       <c r="E20" s="7">
-        <v>10202.11</v>
+        <v>10125.33</v>
       </c>
       <c r="F20" s="7">
-        <v>48299.66</v>
+        <v>47868.03</v>
       </c>
       <c r="G20" s="7">
-        <v>9003.7900000000009</v>
+        <v>8912.36</v>
       </c>
       <c r="H20" s="7">
-        <v>7573.24</v>
+        <v>7519.6</v>
       </c>
       <c r="I20" s="7">
-        <v>13000.369999999901</v>
+        <v>12753.35</v>
       </c>
       <c r="J20" s="7">
-        <v>1687.6799999999901</v>
+        <v>1683.3899999999901</v>
       </c>
       <c r="K20" s="7">
-        <v>7219.44</v>
+        <v>7126.8799999999901</v>
       </c>
       <c r="L20" s="7">
-        <v>2629.6099999999901</v>
+        <v>2600.3199999999902</v>
       </c>
       <c r="M20" s="7">
-        <v>12521.83</v>
+        <v>12420.13</v>
       </c>
       <c r="N20" s="7">
-        <v>6874.51</v>
+        <v>6807.77</v>
       </c>
       <c r="O20" s="7">
-        <v>1245.23</v>
+        <v>1247.17</v>
       </c>
       <c r="P20" s="7">
-        <v>1187.96</v>
+        <v>1188.32</v>
       </c>
       <c r="Q20" s="7">
-        <v>16377.72</v>
+        <v>16389.419999999998</v>
       </c>
       <c r="R20" s="7">
-        <v>3152.66</v>
+        <v>3128.16</v>
       </c>
       <c r="S20" s="7">
-        <v>9440.82</v>
+        <v>9347.5400000000009</v>
       </c>
       <c r="T20" s="7">
-        <v>4185.75</v>
+        <v>4192.7700000000004</v>
       </c>
       <c r="U20" s="7">
-        <v>7751.9</v>
+        <v>7706.7199999999903</v>
       </c>
       <c r="V20" s="7">
-        <v>12424.77</v>
+        <v>12173.48</v>
       </c>
       <c r="W20" s="7">
-        <v>1458.59</v>
+        <v>1449.57</v>
       </c>
       <c r="X20" s="7">
-        <v>23415.73</v>
+        <v>23205.14</v>
       </c>
       <c r="Y20" s="7">
-        <v>9574.66</v>
+        <v>9384.4199999999892</v>
       </c>
       <c r="Z20" s="7">
-        <v>2819.34</v>
+        <v>2796.6</v>
       </c>
       <c r="AA20" s="7">
-        <v>44730.0099999999</v>
+        <v>44468.51</v>
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="3"/>
-        <v>278024.10999999981</v>
+        <v>275558.45999999996</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="4"/>
-        <v>-6.7762085349375112E-2</v>
+        <v>-7.6029614428986855E-2</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
@@ -2139,90 +2139,90 @@
         <v>31</v>
       </c>
       <c r="B21" s="7">
-        <v>17217.439999999999</v>
+        <v>16258.2</v>
       </c>
       <c r="C21" s="7">
-        <v>563.78</v>
+        <v>553.97</v>
       </c>
       <c r="D21" s="7">
-        <v>2173.73</v>
+        <v>2133.5</v>
       </c>
       <c r="E21" s="7">
-        <v>9662.9</v>
+        <v>9122.66</v>
       </c>
       <c r="F21" s="7">
-        <v>41209.61</v>
+        <v>40822.699999999997</v>
       </c>
       <c r="G21" s="7">
-        <v>8565.4599999999991</v>
+        <v>7951.3099999999904</v>
       </c>
       <c r="H21" s="7">
-        <v>7205.51</v>
+        <v>6749.9699999999903</v>
       </c>
       <c r="I21" s="7">
-        <v>12290.89</v>
+        <v>11073.81</v>
       </c>
       <c r="J21" s="7">
-        <v>1617.71</v>
+        <v>1530.81</v>
       </c>
       <c r="K21" s="7">
-        <v>6827.74</v>
+        <v>6209.98</v>
       </c>
       <c r="L21" s="7">
-        <v>2481.44</v>
+        <v>2270.71</v>
       </c>
       <c r="M21" s="7">
-        <v>11943.95</v>
+        <v>11433.4</v>
       </c>
       <c r="N21" s="7">
-        <v>6468.3099999999904</v>
+        <v>6086.98</v>
       </c>
       <c r="O21" s="7">
-        <v>1174.49</v>
+        <v>1159.3699999999999</v>
       </c>
       <c r="P21" s="7">
-        <v>1149.8499999999999</v>
+        <v>1137.4000000000001</v>
       </c>
       <c r="Q21" s="7">
-        <v>15675.17</v>
+        <v>15398.91</v>
       </c>
       <c r="R21" s="7">
-        <v>2970.35</v>
+        <v>2768.5</v>
       </c>
       <c r="S21" s="7">
-        <v>9004.93</v>
+        <v>8415.91</v>
       </c>
       <c r="T21" s="7">
-        <v>4011.22</v>
+        <v>3965.2</v>
       </c>
       <c r="U21" s="7">
-        <v>7350.09</v>
+        <v>6961.43</v>
       </c>
       <c r="V21" s="7">
-        <v>11693.24</v>
+        <v>11087.6899999999</v>
       </c>
       <c r="W21" s="7">
-        <v>1393.19</v>
+        <v>1316.25</v>
       </c>
       <c r="X21" s="7">
-        <v>20663.87</v>
+        <v>19849.949999999899</v>
       </c>
       <c r="Y21" s="7">
-        <v>9045.58</v>
+        <v>8391.64</v>
       </c>
       <c r="Z21" s="7">
-        <v>2677.58</v>
+        <v>2496.5299999999902</v>
       </c>
       <c r="AA21" s="7">
-        <v>42595.03</v>
+        <v>41094.699999999997</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" si="3"/>
-        <v>257633.05999999994</v>
+        <f>SUM(B21:AA21)</f>
+        <v>246241.47999999975</v>
       </c>
       <c r="AC21" s="6">
-        <f t="shared" si="4"/>
-        <v>-0.13613496829660052</v>
+        <f>(AB21-$AB$2)/$AB$2</f>
+        <v>-0.17433188144839856</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
@@ -2230,90 +2230,90 @@
         <v>32</v>
       </c>
       <c r="B22" s="7">
-        <v>19811.03</v>
+        <v>19573.72</v>
       </c>
       <c r="C22" s="7">
-        <v>604.32999999999902</v>
+        <v>607.16999999999996</v>
       </c>
       <c r="D22" s="7">
-        <v>2332.79</v>
+        <v>2342.91</v>
       </c>
       <c r="E22" s="7">
-        <v>11036.11</v>
+        <v>10897.11</v>
       </c>
       <c r="F22" s="7">
-        <v>57277.69</v>
+        <v>56573.2599999999</v>
       </c>
       <c r="G22" s="7">
-        <v>9357.14</v>
+        <v>9360.02</v>
       </c>
       <c r="H22" s="7">
-        <v>7855.58</v>
+        <v>7892.67</v>
       </c>
       <c r="I22" s="7">
-        <v>13608.43</v>
+        <v>13646.74</v>
       </c>
       <c r="J22" s="7">
-        <v>1747.87</v>
+        <v>1755.77</v>
       </c>
       <c r="K22" s="7">
-        <v>7522.9699999999903</v>
+        <v>7552.24</v>
       </c>
       <c r="L22" s="7">
-        <v>2719</v>
+        <v>2733.76</v>
       </c>
       <c r="M22" s="7">
-        <v>13418.7</v>
+        <v>13287.03</v>
       </c>
       <c r="N22" s="7">
-        <v>7158.04</v>
+        <v>7185.13</v>
       </c>
       <c r="O22" s="7">
-        <v>1297.42</v>
+        <v>1302.52</v>
       </c>
       <c r="P22" s="7">
-        <v>1232.94</v>
+        <v>1234.8899999999901</v>
       </c>
       <c r="Q22" s="7">
-        <v>16925.91</v>
+        <v>17005.2</v>
       </c>
       <c r="R22" s="7">
-        <v>3267.97999999999</v>
+        <v>3286.26</v>
       </c>
       <c r="S22" s="7">
-        <v>9771.02</v>
+        <v>9798.82</v>
       </c>
       <c r="T22" s="7">
-        <v>4306.59</v>
+        <v>4325.95</v>
       </c>
       <c r="U22" s="7">
-        <v>8008.09</v>
+        <v>8044.01</v>
       </c>
       <c r="V22" s="7">
-        <v>12793.66</v>
+        <v>12793.51</v>
       </c>
       <c r="W22" s="7">
-        <v>1516.12</v>
+        <v>1520.85</v>
       </c>
       <c r="X22" s="7">
-        <v>28142.32</v>
+        <v>27766.85</v>
       </c>
       <c r="Y22" s="7">
-        <v>10498.86</v>
+        <v>10269.82</v>
       </c>
       <c r="Z22" s="7">
-        <v>2910.48</v>
+        <v>2928.18</v>
       </c>
       <c r="AA22" s="7">
-        <v>47735.06</v>
+        <v>47285.59</v>
       </c>
       <c r="AB22" s="2">
         <f t="shared" si="3"/>
-        <v>302856.13</v>
+        <v>300969.98</v>
       </c>
       <c r="AC22" s="6">
         <f t="shared" si="4"/>
-        <v>1.5501738573531449E-2</v>
+        <v>9.1773210878741841E-3</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.35">
@@ -2321,90 +2321,90 @@
         <v>33</v>
       </c>
       <c r="B23" s="7">
-        <v>18496.599999999999</v>
+        <v>18213.54</v>
       </c>
       <c r="C23" s="7">
-        <v>596.04</v>
+        <v>595.49</v>
       </c>
       <c r="D23" s="7">
-        <v>2297.09</v>
+        <v>2295.73</v>
       </c>
       <c r="E23" s="7">
-        <v>10160.93</v>
+        <v>9958.98</v>
       </c>
       <c r="F23" s="7">
-        <v>49001.35</v>
+        <v>48333.63</v>
       </c>
       <c r="G23" s="7">
-        <v>9084.41</v>
+        <v>8920.26</v>
       </c>
       <c r="H23" s="7">
-        <v>7585.85</v>
+        <v>7486.53</v>
       </c>
       <c r="I23" s="7">
-        <v>12929.29</v>
+        <v>12526.77</v>
       </c>
       <c r="J23" s="7">
-        <v>1704.6799999999901</v>
+        <v>1689.9</v>
       </c>
       <c r="K23" s="7">
-        <v>7257.5499999999902</v>
+        <v>7088.88</v>
       </c>
       <c r="L23" s="7">
-        <v>2654.99</v>
+        <v>2603.9499999999998</v>
       </c>
       <c r="M23" s="7">
-        <v>12530.21</v>
+        <v>12312.9199999999</v>
       </c>
       <c r="N23" s="7">
-        <v>6931.4</v>
+        <v>6813.17</v>
       </c>
       <c r="O23" s="7">
-        <v>1252.33</v>
+        <v>1249.98</v>
       </c>
       <c r="P23" s="7">
-        <v>1197.05</v>
+        <v>1194.98999999999</v>
       </c>
       <c r="Q23" s="7">
-        <v>16393.39</v>
+        <v>16379.99</v>
       </c>
       <c r="R23" s="7">
-        <v>3176.55</v>
+        <v>3131.31</v>
       </c>
       <c r="S23" s="7">
-        <v>9539.82</v>
+        <v>9390.91</v>
       </c>
       <c r="T23" s="7">
-        <v>4235.49</v>
+        <v>4236.1499999999996</v>
       </c>
       <c r="U23" s="7">
-        <v>7864.8099999999904</v>
+        <v>7781.28</v>
       </c>
       <c r="V23" s="7">
-        <v>12554.51</v>
+        <v>12152.65</v>
       </c>
       <c r="W23" s="7">
-        <v>1454.95</v>
+        <v>1436.55</v>
       </c>
       <c r="X23" s="7">
-        <v>22426.21</v>
+        <v>21881.67</v>
       </c>
       <c r="Y23" s="7">
-        <v>9443.2099999999991</v>
+        <v>9078.3799999999992</v>
       </c>
       <c r="Z23" s="7">
-        <v>2842.97</v>
+        <v>2801.22</v>
       </c>
       <c r="AA23" s="7">
-        <v>45282.97</v>
+        <v>44780.25</v>
       </c>
       <c r="AB23" s="2">
         <f t="shared" si="3"/>
-        <v>278894.64999999997</v>
+        <v>274335.07999999984</v>
       </c>
       <c r="AC23" s="6">
         <f t="shared" si="4"/>
-        <v>-6.484309248138212E-2</v>
+        <v>-8.013170909993246E-2</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
@@ -2412,90 +2412,90 @@
         <v>34</v>
       </c>
       <c r="B24" s="7">
-        <v>17419.55</v>
+        <v>16267.869999999901</v>
       </c>
       <c r="C24" s="7">
-        <v>562.67999999999995</v>
+        <v>552.12</v>
       </c>
       <c r="D24" s="7">
-        <v>2172.65</v>
+        <v>2126.7799999999902</v>
       </c>
       <c r="E24" s="7">
-        <v>9344.5400000000009</v>
+        <v>8736.7199999999993</v>
       </c>
       <c r="F24" s="7">
-        <v>40359.57</v>
+        <v>39772.839999999997</v>
       </c>
       <c r="G24" s="7">
-        <v>8534.9500000000007</v>
+        <v>7788.46</v>
       </c>
       <c r="H24" s="7">
-        <v>7210.92</v>
+        <v>6619.67</v>
       </c>
       <c r="I24" s="7">
-        <v>12108.619999999901</v>
+        <v>10617.52</v>
       </c>
       <c r="J24" s="7">
-        <v>1612.27</v>
+        <v>1505.21</v>
       </c>
       <c r="K24" s="7">
-        <v>6755.75</v>
+        <v>6027.92</v>
       </c>
       <c r="L24" s="7">
-        <v>2486.7799999999902</v>
+        <v>2222.59</v>
       </c>
       <c r="M24" s="7">
-        <v>11679.24</v>
+        <v>11099.45</v>
       </c>
       <c r="N24" s="7">
-        <v>6442.5</v>
+        <v>5955.12</v>
       </c>
       <c r="O24" s="7">
-        <v>1155.69999999999</v>
+        <v>1137.1500000000001</v>
       </c>
       <c r="P24" s="7">
-        <v>1146.18</v>
+        <v>1129.49</v>
       </c>
       <c r="Q24" s="7">
-        <v>15592.89</v>
+        <v>15258.95</v>
       </c>
       <c r="R24" s="7">
-        <v>2973.8</v>
+        <v>2718.42</v>
       </c>
       <c r="S24" s="7">
-        <v>9019.14</v>
+        <v>8273.3699999999899</v>
       </c>
       <c r="T24" s="7">
-        <v>4021.76</v>
+        <v>3965.3999999999901</v>
       </c>
       <c r="U24" s="7">
-        <v>7421.83</v>
+        <v>6946.15</v>
       </c>
       <c r="V24" s="7">
-        <v>11555.66</v>
+        <v>10842.93</v>
       </c>
       <c r="W24" s="7">
-        <v>1386.56</v>
+        <v>1290.78</v>
       </c>
       <c r="X24" s="7">
-        <v>15289.369999999901</v>
+        <v>14451.84</v>
       </c>
       <c r="Y24" s="7">
-        <v>8484.77</v>
+        <v>7783.68</v>
       </c>
       <c r="Z24" s="7">
-        <v>2680.91</v>
+        <v>2454.37</v>
       </c>
       <c r="AA24" s="7">
-        <v>42834.229999999901</v>
+        <v>40895.82</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="3"/>
-        <v>250252.81999999966</v>
+        <f>SUM(B24:AA24)</f>
+        <v>236440.61999999988</v>
       </c>
       <c r="AC24" s="6">
-        <f t="shared" si="4"/>
-        <v>-0.16088152551863927</v>
+        <f>(AB24-$AB$2)/$AB$2</f>
+        <v>-0.20719497842291135</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
@@ -2503,90 +2503,90 @@
         <v>35</v>
       </c>
       <c r="B25" s="7">
-        <v>20091.05</v>
+        <v>19757.39</v>
       </c>
       <c r="C25" s="7">
-        <v>615.35999999999899</v>
+        <v>617.62</v>
       </c>
       <c r="D25" s="7">
-        <v>2375.2799999999902</v>
+        <v>2385.27</v>
       </c>
       <c r="E25" s="7">
-        <v>11128.54</v>
+        <v>10932.34</v>
       </c>
       <c r="F25" s="7">
-        <v>58180.29</v>
+        <v>57311.3</v>
       </c>
       <c r="G25" s="7">
-        <v>9486.7799999999897</v>
+        <v>9453.14</v>
       </c>
       <c r="H25" s="7">
-        <v>7928.38</v>
+        <v>7945.9699999999903</v>
       </c>
       <c r="I25" s="7">
-        <v>13650.72</v>
+        <v>13626.78</v>
       </c>
       <c r="J25" s="7">
-        <v>1779.61</v>
+        <v>1781.49</v>
       </c>
       <c r="K25" s="7">
-        <v>7663.84</v>
+        <v>7656.97</v>
       </c>
       <c r="L25" s="7">
-        <v>2752.1099999999901</v>
+        <v>2762.73</v>
       </c>
       <c r="M25" s="7">
-        <v>13548.18</v>
+        <v>13359.71</v>
       </c>
       <c r="N25" s="7">
-        <v>7254.67</v>
+        <v>7262.51</v>
       </c>
       <c r="O25" s="7">
-        <v>1321.52</v>
+        <v>1324.23</v>
       </c>
       <c r="P25" s="7">
-        <v>1261.3800000000001</v>
+        <v>1260.19</v>
       </c>
       <c r="Q25" s="7">
-        <v>17154.75</v>
+        <v>17205.79</v>
       </c>
       <c r="R25" s="7">
-        <v>3305.7</v>
+        <v>3318.41</v>
       </c>
       <c r="S25" s="7">
-        <v>9910.9</v>
+        <v>9906.0299999999897</v>
       </c>
       <c r="T25" s="7">
-        <v>4403.79</v>
+        <v>4414.57</v>
       </c>
       <c r="U25" s="7">
-        <v>8156.03</v>
+        <v>8181.01</v>
       </c>
       <c r="V25" s="7">
-        <v>13014.58</v>
+        <v>12927</v>
       </c>
       <c r="W25" s="7">
-        <v>1533.68</v>
+        <v>1531.21999999999</v>
       </c>
       <c r="X25" s="7">
-        <v>27559.37</v>
+        <v>26979.18</v>
       </c>
       <c r="Y25" s="7">
-        <v>10568.99</v>
+        <v>10222.11</v>
       </c>
       <c r="Z25" s="7">
-        <v>2948.02</v>
+        <v>2959.2799999999902</v>
       </c>
       <c r="AA25" s="7">
-        <v>48710.53</v>
+        <v>48132.88</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="3"/>
-        <v>306304.04999999993</v>
+        <v>303215.12</v>
       </c>
       <c r="AC25" s="6">
         <f t="shared" si="4"/>
-        <v>2.7062900483849642E-2</v>
+        <v>1.6705461836885909E-2</v>
       </c>
     </row>
   </sheetData>
